--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gdnf-Gfra2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gdnf-Gfra2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.45645027716988</v>
+        <v>1.995314333333334</v>
       </c>
       <c r="H2">
-        <v>1.45645027716988</v>
+        <v>5.985943000000001</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.369473802023331</v>
+        <v>0.3696466666666667</v>
       </c>
       <c r="N2">
-        <v>0.369473802023331</v>
+        <v>1.10894</v>
       </c>
       <c r="O2">
-        <v>0.07981544815509055</v>
+        <v>0.06847815280531702</v>
       </c>
       <c r="P2">
-        <v>0.07981544815509055</v>
+        <v>0.06847815280531701</v>
       </c>
       <c r="Q2">
-        <v>0.5381202213638898</v>
+        <v>0.737561292268889</v>
       </c>
       <c r="R2">
-        <v>0.5381202213638898</v>
+        <v>6.638051630420001</v>
       </c>
       <c r="S2">
-        <v>0.07981544815509055</v>
+        <v>0.06847815280531702</v>
       </c>
       <c r="T2">
-        <v>0.07981544815509055</v>
+        <v>0.06847815280531701</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +596,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.45645027716988</v>
+        <v>1.995314333333334</v>
       </c>
       <c r="H3">
-        <v>1.45645027716988</v>
+        <v>5.985943000000001</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.25426910362181</v>
+        <v>3.30984</v>
       </c>
       <c r="N3">
-        <v>3.25426910362181</v>
+        <v>9.92952</v>
       </c>
       <c r="O3">
-        <v>0.7030023387326331</v>
+        <v>0.6131577793599756</v>
       </c>
       <c r="P3">
-        <v>0.7030023387326331</v>
+        <v>0.6131577793599756</v>
       </c>
       <c r="Q3">
-        <v>4.739681137955362</v>
+        <v>6.604171193040001</v>
       </c>
       <c r="R3">
-        <v>4.739681137955362</v>
+        <v>59.43754073736001</v>
       </c>
       <c r="S3">
-        <v>0.7030023387326331</v>
+        <v>0.6131577793599756</v>
       </c>
       <c r="T3">
-        <v>0.7030023387326331</v>
+        <v>0.6131577793599756</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,55 +655,179 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.995314333333334</v>
+      </c>
+      <c r="H4">
+        <v>5.985943000000001</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.027417</v>
+      </c>
+      <c r="N4">
+        <v>0.082251</v>
+      </c>
+      <c r="O4">
+        <v>0.005079081416839622</v>
+      </c>
+      <c r="P4">
+        <v>0.005079081416839621</v>
+      </c>
+      <c r="Q4">
+        <v>0.05470553307700001</v>
+      </c>
+      <c r="R4">
+        <v>0.4923497976930001</v>
+      </c>
+      <c r="S4">
+        <v>0.005079081416839622</v>
+      </c>
+      <c r="T4">
+        <v>0.005079081416839621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.45645027716988</v>
-      </c>
-      <c r="H4">
-        <v>1.45645027716988</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.00535848466969</v>
-      </c>
-      <c r="N4">
-        <v>1.00535848466969</v>
-      </c>
-      <c r="O4">
-        <v>0.2171822131122762</v>
-      </c>
-      <c r="P4">
-        <v>0.2171822131122762</v>
-      </c>
-      <c r="Q4">
-        <v>1.46425464365226</v>
-      </c>
-      <c r="R4">
-        <v>1.46425464365226</v>
-      </c>
-      <c r="S4">
-        <v>0.2171822131122762</v>
-      </c>
-      <c r="T4">
-        <v>0.2171822131122762</v>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.995314333333334</v>
+      </c>
+      <c r="H5">
+        <v>5.985943000000001</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1051533333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.31546</v>
+      </c>
+      <c r="O5">
+        <v>0.0194799701372169</v>
+      </c>
+      <c r="P5">
+        <v>0.0194799701372169</v>
+      </c>
+      <c r="Q5">
+        <v>0.2098139531977778</v>
+      </c>
+      <c r="R5">
+        <v>1.88832557878</v>
+      </c>
+      <c r="S5">
+        <v>0.0194799701372169</v>
+      </c>
+      <c r="T5">
+        <v>0.0194799701372169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.995314333333334</v>
+      </c>
+      <c r="H6">
+        <v>5.985943000000001</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.585966333333333</v>
+      </c>
+      <c r="N6">
+        <v>4.757899</v>
+      </c>
+      <c r="O6">
+        <v>0.2938050162806509</v>
+      </c>
+      <c r="P6">
+        <v>0.2938050162806509</v>
+      </c>
+      <c r="Q6">
+        <v>3.164501357084112</v>
+      </c>
+      <c r="R6">
+        <v>28.480512213757</v>
+      </c>
+      <c r="S6">
+        <v>0.2938050162806509</v>
+      </c>
+      <c r="T6">
+        <v>0.2938050162806509</v>
       </c>
     </row>
   </sheetData>
